--- a/PlayerDataBackup.xlsx
+++ b/PlayerDataBackup.xlsx
@@ -1715,7 +1715,9 @@
       <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="inlineStr"/>
       <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="inlineStr"/>
+      <c r="AQ19" t="n">
+        <v>1</v>
+      </c>
       <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr"/>
       <c r="AT19" t="inlineStr"/>
@@ -2128,7 +2130,7 @@
       <c r="AO26" t="inlineStr"/>
       <c r="AP26" t="inlineStr"/>
       <c r="AQ26" s="2" t="n">
-        <v>44397.52036643519</v>
+        <v>44398.72112170139</v>
       </c>
       <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="inlineStr"/>
